--- a/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result 201819.xlsx
+++ b/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result 201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\March51920\PayrollProject\OutPutTestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0178E68E-429A-46AB-9F39-3693591F8FA0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3C660-E0E7-4D52-B2EE-CA04ECCF3CFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="19095" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StudentLoans" r:id="rId1" sheetId="1"/>
-    <sheet name="StudentLoansCTAEO" r:id="rId2" sheetId="13"/>
-    <sheet name="StudentLoans1Priority1Other" r:id="rId3" sheetId="14"/>
+    <sheet name="StudentLoans" sheetId="1" r:id="rId1"/>
+    <sheet name="StudentLoansCTAEO" sheetId="13" r:id="rId2"/>
+    <sheet name="StudentLoans1Priority1Other" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="76">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -256,10 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="27">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,54 +383,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -505,178 +454,158 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -698,10 +627,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -865,21 +794,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -896,7 +825,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -950,27 +879,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="44.25" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +930,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:13">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -1032,60 +961,36 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:13">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="28"/>
       <c r="J3" s="2"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:13">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="28"/>
       <c r="J4" s="2"/>
       <c r="K4" s="19"/>
@@ -1157,15 +1062,15 @@
         <v>11</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="15"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
@@ -1173,7 +1078,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row customHeight="1" ht="44.25" r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="44.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1109,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="11" s="1" spans="1:13">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1235,17 +1140,13 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="12" s="1" spans="1:13">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1264,15 +1165,11 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="1" spans="1:13">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1296,13 +1193,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1314,28 +1211,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="48" r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="48" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="30.75" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="30" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1562,23 +1459,23 @@
         <v>11</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
     </row>
-    <row customHeight="1" ht="45.75" r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="45.75" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="26.25" customHeight="1">
       <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1599,7 @@
       </c>
       <c r="N12" s="28"/>
     </row>
-    <row customHeight="1" ht="24.75" r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="24.75" customHeight="1">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -1746,48 +1643,48 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.8046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.234375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.50390625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.046875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.8046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.8828125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="34.3984375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5859375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.8046875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.8828125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="34.3984375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5859375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="25.8046875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.8828125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="27.93359375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="48" r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="48" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -1858,7 +1755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="51"/>
       <c r="B3" s="12" t="s">
         <v>66</v>
@@ -1993,7 +1890,7 @@
       </c>
       <c r="W3" s="28"/>
     </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="26.25" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="37" t="s">
@@ -2064,7 +1961,7 @@
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
     </row>
-    <row ht="30" r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="30">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2109,7 @@
       <c r="D12" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -2337,12 +2234,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId1" ref="J2" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId2" ref="P2" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId3" ref="J11" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId4" ref="P11" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
+    <hyperlink ref="P2" r:id="rId2" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
+    <hyperlink ref="J11" r:id="rId3" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
+    <hyperlink ref="P11" r:id="rId4" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>